--- a/03-Data-Warehousing/QLab_G_guide.xlsx
+++ b/03-Data-Warehousing/QLab_G_guide.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4283" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4296" uniqueCount="553">
   <si>
     <t>Row</t>
   </si>
@@ -1631,6 +1631,12 @@
     <t>pct_count</t>
   </si>
   <si>
+    <t>Unnamed table, call it table x_join_y</t>
+  </si>
+  <si>
+    <t>Unnamed table, call it table a_join_b</t>
+  </si>
+  <si>
     <t>avg_pct_count</t>
   </si>
   <si>
@@ -1640,6 +1646,12 @@
     <t>complaint_count</t>
   </si>
   <si>
+    <t>select from table x_join_y</t>
+  </si>
+  <si>
+    <t>select from table a_join_b</t>
+  </si>
+  <si>
     <t>Unnamed table, call it table Mr. Final</t>
   </si>
   <si>
@@ -1665,6 +1677,12 @@
   </si>
   <si>
     <t>select from 'demos.nyc_weather'</t>
+  </si>
+  <si>
+    <t>join table x and table y on x.date=y.date</t>
+  </si>
+  <si>
+    <t>join table a and table b on a.date=b.date</t>
   </si>
   <si>
     <r>
@@ -1737,12 +1755,6 @@
 Quick access to the SQL query in the QLab:
 https://google.qwiklabs.com/focuses/609?parent=catalog#step9</t>
     </r>
-  </si>
-  <si>
-    <t>select from (x JOIN y ON x.date=y.date)</t>
-  </si>
-  <si>
-    <t>select from (a JOIN b ON a.date=b.date)</t>
   </si>
 </sst>
 </file>
@@ -2148,7 +2160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2175,8 +2187,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2203,6 +2217,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2314,8 +2334,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2619,166 +2654,166 @@
   <sheetFormatPr defaultColWidth="9.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="4" spans="2:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="51" t="s">
-        <v>546</v>
-      </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="53"/>
+      <c r="B4" s="55" t="s">
+        <v>552</v>
+      </c>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="57"/>
     </row>
     <row r="5" spans="2:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="56"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="60"/>
     </row>
     <row r="6" spans="2:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="54"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="56"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="60"/>
     </row>
     <row r="7" spans="2:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="54"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="56"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="60"/>
     </row>
     <row r="8" spans="2:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="54"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="56"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="60"/>
     </row>
     <row r="9" spans="2:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="54"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="56"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="60"/>
     </row>
     <row r="10" spans="2:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="54"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="56"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="60"/>
     </row>
     <row r="11" spans="2:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="54"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="56"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="60"/>
     </row>
     <row r="12" spans="2:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="54"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="56"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="60"/>
     </row>
     <row r="13" spans="2:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="57"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="59"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -15799,7 +15834,7 @@
       <c r="A1" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="51" t="s">
         <v>520</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -15822,7 +15857,7 @@
       <c r="A2" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="B2" s="48">
+      <c r="B2" s="52">
         <v>44</v>
       </c>
       <c r="C2" s="7">
@@ -15845,7 +15880,7 @@
       <c r="A3" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="B3" s="48">
+      <c r="B3" s="52">
         <v>44.85</v>
       </c>
       <c r="C3" s="7">
@@ -15868,7 +15903,7 @@
       <c r="A4" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="B4" s="48">
+      <c r="B4" s="52">
         <v>58.15</v>
       </c>
       <c r="C4" s="7">
@@ -15891,7 +15926,7 @@
       <c r="A5" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="B5" s="48">
+      <c r="B5" s="52">
         <v>45.9</v>
       </c>
       <c r="C5" s="7">
@@ -15914,7 +15949,7 @@
       <c r="A6" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="B6" s="48">
+      <c r="B6" s="52">
         <v>64.400000000000006</v>
       </c>
       <c r="C6" s="7">
@@ -15937,7 +15972,7 @@
       <c r="A7" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="B7" s="48">
+      <c r="B7" s="52">
         <v>44.85</v>
       </c>
       <c r="C7" s="7">
@@ -15960,7 +15995,7 @@
       <c r="A8" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="B8" s="48">
+      <c r="B8" s="52">
         <v>32.1</v>
       </c>
       <c r="C8" s="7">
@@ -15983,7 +16018,7 @@
       <c r="A9" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="B9" s="48">
+      <c r="B9" s="52">
         <v>35.200000000000003</v>
       </c>
       <c r="C9" s="7">
@@ -16006,7 +16041,7 @@
       <c r="A10" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="B10" s="48">
+      <c r="B10" s="52">
         <v>53.5</v>
       </c>
       <c r="C10" s="7">
@@ -16029,7 +16064,7 @@
       <c r="A11" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="B11" s="48">
+      <c r="B11" s="52">
         <v>24.6</v>
       </c>
       <c r="C11" s="7">
@@ -16052,7 +16087,7 @@
       <c r="A12" s="10" t="s">
         <v>429</v>
       </c>
-      <c r="B12" s="48">
+      <c r="B12" s="52">
         <v>70.599999999999994</v>
       </c>
       <c r="C12" s="7">
@@ -16075,7 +16110,7 @@
       <c r="A13" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="B13" s="48">
+      <c r="B13" s="52">
         <v>50.6</v>
       </c>
       <c r="C13" s="7">
@@ -16098,7 +16133,7 @@
       <c r="A14" s="10" t="s">
         <v>431</v>
       </c>
-      <c r="B14" s="48">
+      <c r="B14" s="52">
         <v>67.900000000000006</v>
       </c>
       <c r="C14" s="7">
@@ -16121,7 +16156,7 @@
       <c r="A15" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="B15" s="48">
+      <c r="B15" s="52">
         <v>64.949999999999903</v>
       </c>
       <c r="C15" s="7">
@@ -16144,7 +16179,7 @@
       <c r="A16" s="10" t="s">
         <v>433</v>
       </c>
-      <c r="B16" s="48">
+      <c r="B16" s="52">
         <v>49.7</v>
       </c>
       <c r="C16" s="7">
@@ -16167,7 +16202,7 @@
       <c r="A17" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="B17" s="48">
+      <c r="B17" s="52">
         <v>73.849999999999994</v>
       </c>
       <c r="C17" s="7">
@@ -16190,7 +16225,7 @@
       <c r="A18" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="B18" s="48">
+      <c r="B18" s="52">
         <v>55.8</v>
       </c>
       <c r="C18" s="7">
@@ -16213,7 +16248,7 @@
       <c r="A19" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="B19" s="48">
+      <c r="B19" s="52">
         <v>68.05</v>
       </c>
       <c r="C19" s="7">
@@ -16236,7 +16271,7 @@
       <c r="A20" s="10" t="s">
         <v>437</v>
       </c>
-      <c r="B20" s="48">
+      <c r="B20" s="52">
         <v>53.85</v>
       </c>
       <c r="C20" s="7">
@@ -16259,7 +16294,7 @@
       <c r="A21" s="10" t="s">
         <v>438</v>
       </c>
-      <c r="B21" s="48">
+      <c r="B21" s="52">
         <v>35.15</v>
       </c>
       <c r="C21" s="7">
@@ -16282,7 +16317,7 @@
       <c r="A22" s="10" t="s">
         <v>439</v>
       </c>
-      <c r="B22" s="48">
+      <c r="B22" s="52">
         <v>66.8</v>
       </c>
       <c r="C22" s="7">
@@ -16305,7 +16340,7 @@
       <c r="A23" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="B23" s="48">
+      <c r="B23" s="52">
         <v>37.65</v>
       </c>
       <c r="C23" s="7">
@@ -16328,7 +16363,7 @@
       <c r="A24" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="B24" s="48">
+      <c r="B24" s="52">
         <v>34.15</v>
       </c>
       <c r="C24" s="7">
@@ -16351,7 +16386,7 @@
       <c r="A25" s="10" t="s">
         <v>442</v>
       </c>
-      <c r="B25" s="48">
+      <c r="B25" s="52">
         <v>64.3</v>
       </c>
       <c r="C25" s="7">
@@ -16374,7 +16409,7 @@
       <c r="A26" s="10" t="s">
         <v>443</v>
       </c>
-      <c r="B26" s="48">
+      <c r="B26" s="52">
         <v>66.599999999999994</v>
       </c>
       <c r="C26" s="7">
@@ -16397,7 +16432,7 @@
       <c r="A27" s="10" t="s">
         <v>444</v>
       </c>
-      <c r="B27" s="48">
+      <c r="B27" s="52">
         <v>45.2</v>
       </c>
       <c r="C27" s="7">
@@ -16420,7 +16455,7 @@
       <c r="A28" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="B28" s="48">
+      <c r="B28" s="52">
         <v>50.75</v>
       </c>
       <c r="C28" s="7">
@@ -16443,7 +16478,7 @@
       <c r="A29" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="B29" s="48">
+      <c r="B29" s="52">
         <v>62.8</v>
       </c>
       <c r="C29" s="7">
@@ -16466,7 +16501,7 @@
       <c r="A30" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="B30" s="48">
+      <c r="B30" s="52">
         <v>66</v>
       </c>
       <c r="C30" s="7">
@@ -16489,7 +16524,7 @@
       <c r="A31" s="10" t="s">
         <v>448</v>
       </c>
-      <c r="B31" s="48">
+      <c r="B31" s="52">
         <v>66.699999999999903</v>
       </c>
       <c r="C31" s="7">
@@ -16512,7 +16547,7 @@
       <c r="A32" s="10" t="s">
         <v>449</v>
       </c>
-      <c r="B32" s="48">
+      <c r="B32" s="52">
         <v>50.2</v>
       </c>
       <c r="C32" s="7">
@@ -16535,7 +16570,7 @@
       <c r="A33" s="10" t="s">
         <v>450</v>
       </c>
-      <c r="B33" s="48">
+      <c r="B33" s="52">
         <v>62.05</v>
       </c>
       <c r="C33" s="7">
@@ -16558,7 +16593,7 @@
       <c r="A34" s="10" t="s">
         <v>451</v>
       </c>
-      <c r="B34" s="48">
+      <c r="B34" s="52">
         <v>73.949999999999903</v>
       </c>
       <c r="C34" s="7">
@@ -16581,7 +16616,7 @@
       <c r="A35" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="B35" s="48">
+      <c r="B35" s="52">
         <v>57.7</v>
       </c>
       <c r="C35" s="7">
@@ -16604,7 +16639,7 @@
       <c r="A36" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="B36" s="48">
+      <c r="B36" s="52">
         <v>55.5</v>
       </c>
       <c r="C36" s="7">
@@ -16627,7 +16662,7 @@
       <c r="A37" s="10" t="s">
         <v>454</v>
       </c>
-      <c r="B37" s="48">
+      <c r="B37" s="52">
         <v>65.5</v>
       </c>
       <c r="C37" s="7">
@@ -16650,7 +16685,7 @@
       <c r="A38" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="B38" s="48">
+      <c r="B38" s="52">
         <v>62</v>
       </c>
       <c r="C38" s="7">
@@ -16673,7 +16708,7 @@
       <c r="A39" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="B39" s="48">
+      <c r="B39" s="52">
         <v>44.9</v>
       </c>
       <c r="C39" s="7">
@@ -16696,7 +16731,7 @@
       <c r="A40" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="B40" s="48">
+      <c r="B40" s="52">
         <v>57.5</v>
       </c>
       <c r="C40" s="7">
@@ -16719,7 +16754,7 @@
       <c r="A41" s="10" t="s">
         <v>458</v>
       </c>
-      <c r="B41" s="48">
+      <c r="B41" s="52">
         <v>45.9</v>
       </c>
       <c r="C41" s="7">
@@ -16742,7 +16777,7 @@
       <c r="A42" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="B42" s="48">
+      <c r="B42" s="52">
         <v>52.95</v>
       </c>
       <c r="C42" s="7">
@@ -16765,7 +16800,7 @@
       <c r="A43" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="B43" s="48">
+      <c r="B43" s="52">
         <v>37.75</v>
       </c>
       <c r="C43" s="7">
@@ -16788,7 +16823,7 @@
       <c r="A44" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="B44" s="48">
+      <c r="B44" s="52">
         <v>50.85</v>
       </c>
       <c r="C44" s="7">
@@ -16811,7 +16846,7 @@
       <c r="A45" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="B45" s="48">
+      <c r="B45" s="52">
         <v>55.65</v>
       </c>
       <c r="C45" s="7">
@@ -16834,7 +16869,7 @@
       <c r="A46" s="10" t="s">
         <v>463</v>
       </c>
-      <c r="B46" s="48">
+      <c r="B46" s="52">
         <v>31.95</v>
       </c>
       <c r="C46" s="7">
@@ -16857,7 +16892,7 @@
       <c r="A47" s="10" t="s">
         <v>464</v>
       </c>
-      <c r="B47" s="48">
+      <c r="B47" s="52">
         <v>69.95</v>
       </c>
       <c r="C47" s="7">
@@ -16880,7 +16915,7 @@
       <c r="A48" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="B48" s="48">
+      <c r="B48" s="52">
         <v>54.099999999999902</v>
       </c>
       <c r="C48" s="7">
@@ -16903,7 +16938,7 @@
       <c r="A49" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="B49" s="48">
+      <c r="B49" s="52">
         <v>50.2</v>
       </c>
       <c r="C49" s="7">
@@ -16926,7 +16961,7 @@
       <c r="A50" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="B50" s="48">
+      <c r="B50" s="52">
         <v>25.35</v>
       </c>
       <c r="C50" s="7">
@@ -16949,7 +16984,7 @@
       <c r="A51" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="B51" s="48">
+      <c r="B51" s="52">
         <v>52.45</v>
       </c>
       <c r="C51" s="7">
@@ -16972,7 +17007,7 @@
       <c r="A52" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="B52" s="48">
+      <c r="B52" s="52">
         <v>36.549999999999997</v>
       </c>
       <c r="C52" s="7">
@@ -16995,7 +17030,7 @@
       <c r="A53" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="B53" s="48">
+      <c r="B53" s="52">
         <v>38.299999999999997</v>
       </c>
       <c r="C53" s="7">
@@ -17018,7 +17053,7 @@
       <c r="A54" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="B54" s="48">
+      <c r="B54" s="52">
         <v>30.95</v>
       </c>
       <c r="C54" s="7">
@@ -17041,7 +17076,7 @@
       <c r="A55" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="B55" s="48">
+      <c r="B55" s="52">
         <v>70.95</v>
       </c>
       <c r="C55" s="7">
@@ -17064,7 +17099,7 @@
       <c r="A56" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="B56" s="48">
+      <c r="B56" s="52">
         <v>61</v>
       </c>
       <c r="C56" s="7">
@@ -17087,7 +17122,7 @@
       <c r="A57" s="10" t="s">
         <v>474</v>
       </c>
-      <c r="B57" s="48">
+      <c r="B57" s="52">
         <v>48.4</v>
       </c>
       <c r="C57" s="7">
@@ -17110,7 +17145,7 @@
       <c r="A58" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="B58" s="48">
+      <c r="B58" s="52">
         <v>44.15</v>
       </c>
       <c r="C58" s="7">
@@ -17133,7 +17168,7 @@
       <c r="A59" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B59" s="48">
+      <c r="B59" s="52">
         <v>40.65</v>
       </c>
       <c r="C59" s="7">
@@ -17156,7 +17191,7 @@
       <c r="A60" s="10" t="s">
         <v>477</v>
       </c>
-      <c r="B60" s="48">
+      <c r="B60" s="52">
         <v>34.85</v>
       </c>
       <c r="C60" s="7">
@@ -17179,7 +17214,7 @@
       <c r="A61" s="10" t="s">
         <v>478</v>
       </c>
-      <c r="B61" s="48">
+      <c r="B61" s="52">
         <v>28.7</v>
       </c>
       <c r="C61" s="7">
@@ -17202,7 +17237,7 @@
       <c r="A62" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="B62" s="48">
+      <c r="B62" s="52">
         <v>45.2</v>
       </c>
       <c r="C62" s="7">
@@ -17225,7 +17260,7 @@
       <c r="A63" s="10" t="s">
         <v>480</v>
       </c>
-      <c r="B63" s="48">
+      <c r="B63" s="52">
         <v>34.85</v>
       </c>
       <c r="C63" s="7">
@@ -17248,7 +17283,7 @@
       <c r="A64" s="10" t="s">
         <v>481</v>
       </c>
-      <c r="B64" s="48">
+      <c r="B64" s="52">
         <v>54.2</v>
       </c>
       <c r="C64" s="7">
@@ -17271,7 +17306,7 @@
       <c r="A65" s="10" t="s">
         <v>482</v>
       </c>
-      <c r="B65" s="48">
+      <c r="B65" s="52">
         <v>54.15</v>
       </c>
       <c r="C65" s="7">
@@ -17294,7 +17329,7 @@
       <c r="A66" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="B66" s="48">
+      <c r="B66" s="52">
         <v>48.349999999999902</v>
       </c>
       <c r="C66" s="7">
@@ -17317,7 +17352,7 @@
       <c r="A67" s="10" t="s">
         <v>484</v>
       </c>
-      <c r="B67" s="48">
+      <c r="B67" s="52">
         <v>60.8</v>
       </c>
       <c r="C67" s="7">
@@ -17340,7 +17375,7 @@
       <c r="A68" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="B68" s="48">
+      <c r="B68" s="52">
         <v>37.15</v>
       </c>
       <c r="C68" s="7">
@@ -17363,7 +17398,7 @@
       <c r="A69" s="10" t="s">
         <v>486</v>
       </c>
-      <c r="B69" s="48">
+      <c r="B69" s="52">
         <v>44.6</v>
       </c>
       <c r="C69" s="7">
@@ -17386,7 +17421,7 @@
       <c r="A70" s="10" t="s">
         <v>487</v>
       </c>
-      <c r="B70" s="48">
+      <c r="B70" s="52">
         <v>58.9</v>
       </c>
       <c r="C70" s="7">
@@ -17409,7 +17444,7 @@
       <c r="A71" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="B71" s="48">
+      <c r="B71" s="52">
         <v>68.05</v>
       </c>
       <c r="C71" s="7">
@@ -17432,7 +17467,7 @@
       <c r="A72" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="B72" s="48">
+      <c r="B72" s="52">
         <v>60.45</v>
       </c>
       <c r="C72" s="7">
@@ -17455,7 +17490,7 @@
       <c r="A73" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="B73" s="48">
+      <c r="B73" s="52">
         <v>35.799999999999997</v>
       </c>
       <c r="C73" s="7">
@@ -17478,7 +17513,7 @@
       <c r="A74" s="10" t="s">
         <v>491</v>
       </c>
-      <c r="B74" s="48">
+      <c r="B74" s="52">
         <v>49.05</v>
       </c>
       <c r="C74" s="7">
@@ -17501,7 +17536,7 @@
       <c r="A75" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="B75" s="48">
+      <c r="B75" s="52">
         <v>60.4</v>
       </c>
       <c r="C75" s="7">
@@ -17524,7 +17559,7 @@
       <c r="A76" s="10" t="s">
         <v>493</v>
       </c>
-      <c r="B76" s="48">
+      <c r="B76" s="52">
         <v>35.599999999999902</v>
       </c>
       <c r="C76" s="7">
@@ -17547,7 +17582,7 @@
       <c r="A77" s="10" t="s">
         <v>494</v>
       </c>
-      <c r="B77" s="48">
+      <c r="B77" s="52">
         <v>50.849999999999902</v>
       </c>
       <c r="C77" s="7">
@@ -17570,7 +17605,7 @@
       <c r="A78" s="10" t="s">
         <v>495</v>
       </c>
-      <c r="B78" s="48">
+      <c r="B78" s="52">
         <v>37.700000000000003</v>
       </c>
       <c r="C78" s="7">
@@ -17593,7 +17628,7 @@
       <c r="A79" s="10" t="s">
         <v>496</v>
       </c>
-      <c r="B79" s="48">
+      <c r="B79" s="52">
         <v>65.699999999999903</v>
       </c>
       <c r="C79" s="7">
@@ -17616,7 +17651,7 @@
       <c r="A80" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="B80" s="48">
+      <c r="B80" s="52">
         <v>73.099999999999994</v>
       </c>
       <c r="C80" s="7">
@@ -17639,7 +17674,7 @@
       <c r="A81" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="B81" s="48">
+      <c r="B81" s="52">
         <v>57</v>
       </c>
       <c r="C81" s="7">
@@ -17662,7 +17697,7 @@
       <c r="A82" s="10" t="s">
         <v>499</v>
       </c>
-      <c r="B82" s="48">
+      <c r="B82" s="52">
         <v>66.8</v>
       </c>
       <c r="C82" s="7">
@@ -17685,7 +17720,7 @@
       <c r="A83" s="10" t="s">
         <v>500</v>
       </c>
-      <c r="B83" s="48">
+      <c r="B83" s="52">
         <v>32.049999999999997</v>
       </c>
       <c r="C83" s="7">
@@ -17708,7 +17743,7 @@
       <c r="A84" s="10" t="s">
         <v>501</v>
       </c>
-      <c r="B84" s="48">
+      <c r="B84" s="52">
         <v>38.299999999999997</v>
       </c>
       <c r="C84" s="7">
@@ -17731,7 +17766,7 @@
       <c r="A85" s="10" t="s">
         <v>502</v>
       </c>
-      <c r="B85" s="48">
+      <c r="B85" s="52">
         <v>61.599999999999902</v>
       </c>
       <c r="C85" s="7">
@@ -17754,7 +17789,7 @@
       <c r="A86" s="10" t="s">
         <v>503</v>
       </c>
-      <c r="B86" s="48">
+      <c r="B86" s="52">
         <v>47.8</v>
       </c>
       <c r="C86" s="7">
@@ -17777,7 +17812,7 @@
       <c r="A87" s="10" t="s">
         <v>504</v>
       </c>
-      <c r="B87" s="48">
+      <c r="B87" s="52">
         <v>39.599999999999902</v>
       </c>
       <c r="C87" s="7">
@@ -17800,7 +17835,7 @@
       <c r="A88" s="10" t="s">
         <v>505</v>
       </c>
-      <c r="B88" s="48">
+      <c r="B88" s="52">
         <v>51.7</v>
       </c>
       <c r="C88" s="7">
@@ -17823,7 +17858,7 @@
       <c r="A89" s="10" t="s">
         <v>506</v>
       </c>
-      <c r="B89" s="48">
+      <c r="B89" s="52">
         <v>49</v>
       </c>
       <c r="C89" s="7">
@@ -17846,7 +17881,7 @@
       <c r="A90" s="10" t="s">
         <v>507</v>
       </c>
-      <c r="B90" s="48">
+      <c r="B90" s="52">
         <v>36.85</v>
       </c>
       <c r="C90" s="7">
@@ -17869,7 +17904,7 @@
       <c r="A91" s="10" t="s">
         <v>508</v>
       </c>
-      <c r="B91" s="48">
+      <c r="B91" s="52">
         <v>48.35</v>
       </c>
       <c r="C91" s="7">
@@ -17892,7 +17927,7 @@
       <c r="A92" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="B92" s="48">
+      <c r="B92" s="52">
         <v>53.6</v>
       </c>
       <c r="C92" s="7">
@@ -17915,7 +17950,7 @@
       <c r="A93" s="10" t="s">
         <v>510</v>
       </c>
-      <c r="B93" s="48">
+      <c r="B93" s="52">
         <v>34.700000000000003</v>
       </c>
       <c r="C93" s="7">
@@ -17938,7 +17973,7 @@
       <c r="A94" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="B94" s="48">
+      <c r="B94" s="52">
         <v>68.900000000000006</v>
       </c>
       <c r="C94" s="7">
@@ -17961,7 +17996,7 @@
       <c r="A95" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="B95" s="48">
+      <c r="B95" s="52">
         <v>36.049999999999997</v>
       </c>
       <c r="C95" s="7">
@@ -17984,7 +18019,7 @@
       <c r="A96" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="B96" s="48">
+      <c r="B96" s="52">
         <v>62.9</v>
       </c>
       <c r="C96" s="7">
@@ -18007,7 +18042,7 @@
       <c r="A97" s="10" t="s">
         <v>514</v>
       </c>
-      <c r="B97" s="48">
+      <c r="B97" s="52">
         <v>31.5</v>
       </c>
       <c r="C97" s="7">
@@ -18030,7 +18065,7 @@
       <c r="A98" s="10" t="s">
         <v>515</v>
       </c>
-      <c r="B98" s="48">
+      <c r="B98" s="52">
         <v>71.099999999999994</v>
       </c>
       <c r="C98" s="7">
@@ -18053,7 +18088,7 @@
       <c r="A99" s="10" t="s">
         <v>516</v>
       </c>
-      <c r="B99" s="48">
+      <c r="B99" s="52">
         <v>73.8</v>
       </c>
       <c r="C99" s="7">
@@ -18076,7 +18111,7 @@
       <c r="A100" s="10" t="s">
         <v>517</v>
       </c>
-      <c r="B100" s="48">
+      <c r="B100" s="52">
         <v>66.849999999999994</v>
       </c>
       <c r="C100" s="7">
@@ -18099,7 +18134,7 @@
       <c r="A101" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="B101" s="48">
+      <c r="B101" s="52">
         <v>42.2</v>
       </c>
       <c r="C101" s="7">
@@ -18125,7 +18160,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Y21"/>
+  <dimension ref="B1:AJ21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -18137,301 +18172,394 @@
     <col min="4" max="4" width="11.6328125" customWidth="1"/>
     <col min="5" max="5" width="3.08984375" customWidth="1"/>
     <col min="6" max="6" width="2.81640625" customWidth="1"/>
-    <col min="7" max="7" width="3.08984375" customWidth="1"/>
-    <col min="8" max="8" width="11.81640625" customWidth="1"/>
-    <col min="9" max="9" width="17.26953125" customWidth="1"/>
+    <col min="7" max="7" width="3.6328125" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="9" max="9" width="10.90625" customWidth="1"/>
     <col min="10" max="10" width="11.36328125" customWidth="1"/>
-    <col min="11" max="11" width="10.6328125" customWidth="1"/>
-    <col min="12" max="12" width="2.7265625" customWidth="1"/>
-    <col min="13" max="13" width="2.6328125" customWidth="1"/>
-    <col min="14" max="14" width="3.6328125" customWidth="1"/>
-    <col min="15" max="15" width="14" customWidth="1"/>
-    <col min="16" max="16" width="10.453125" customWidth="1"/>
-    <col min="17" max="17" width="16.26953125" customWidth="1"/>
-    <col min="18" max="18" width="11.453125" customWidth="1"/>
-    <col min="20" max="20" width="3.81640625" customWidth="1"/>
-    <col min="21" max="21" width="11.6328125" customWidth="1"/>
-    <col min="22" max="22" width="21.81640625" customWidth="1"/>
-    <col min="24" max="24" width="11.90625" customWidth="1"/>
-    <col min="25" max="25" width="10.54296875" customWidth="1"/>
+    <col min="11" max="11" width="14.7265625" customWidth="1"/>
+    <col min="12" max="12" width="3.08984375" customWidth="1"/>
+    <col min="13" max="13" width="11.81640625" customWidth="1"/>
+    <col min="14" max="14" width="17.26953125" customWidth="1"/>
+    <col min="15" max="15" width="11.36328125" customWidth="1"/>
+    <col min="16" max="16" width="10.6328125" customWidth="1"/>
+    <col min="17" max="17" width="2.7265625" customWidth="1"/>
+    <col min="18" max="18" width="2.6328125" customWidth="1"/>
+    <col min="19" max="19" width="3.6328125" customWidth="1"/>
+    <col min="20" max="20" width="7.81640625" customWidth="1"/>
+    <col min="21" max="21" width="12.08984375" customWidth="1"/>
+    <col min="22" max="22" width="12.54296875" customWidth="1"/>
+    <col min="23" max="24" width="11.54296875" customWidth="1"/>
+    <col min="25" max="25" width="3.90625" customWidth="1"/>
+    <col min="26" max="26" width="14" customWidth="1"/>
+    <col min="27" max="27" width="10.453125" customWidth="1"/>
+    <col min="28" max="28" width="16.26953125" customWidth="1"/>
+    <col min="29" max="29" width="11.453125" customWidth="1"/>
+    <col min="31" max="31" width="3.81640625" customWidth="1"/>
+    <col min="32" max="32" width="11.6328125" customWidth="1"/>
+    <col min="33" max="33" width="21.81640625" customWidth="1"/>
+    <col min="35" max="35" width="11.90625" customWidth="1"/>
+    <col min="36" max="36" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" ht="19" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="H2" s="50" t="s">
+    <row r="1" spans="2:36" ht="19" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:36" x14ac:dyDescent="0.35">
+      <c r="M2" s="54" t="s">
         <v>526</v>
       </c>
-      <c r="I2" s="49" t="s">
+      <c r="N2" s="53" t="s">
         <v>520</v>
       </c>
-      <c r="M2" s="11"/>
-    </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="H3" s="22"/>
-      <c r="I3" s="23"/>
-      <c r="M3" s="13"/>
-    </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="H4" s="63" t="s">
+      <c r="R2" s="11"/>
+    </row>
+    <row r="3" spans="2:36" x14ac:dyDescent="0.35">
+      <c r="M3" s="24"/>
+      <c r="N3" s="25"/>
+      <c r="R3" s="14"/>
+    </row>
+    <row r="4" spans="2:36" x14ac:dyDescent="0.35">
+      <c r="M4" s="67" t="s">
+        <v>549</v>
+      </c>
+      <c r="N4" s="68"/>
+      <c r="R4" s="14"/>
+    </row>
+    <row r="5" spans="2:36" x14ac:dyDescent="0.35">
+      <c r="M5" s="24"/>
+      <c r="N5" s="25"/>
+      <c r="R5" s="14"/>
+      <c r="T5" s="35" t="s">
+        <v>526</v>
+      </c>
+      <c r="U5" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="V5" s="40" t="s">
+        <v>520</v>
+      </c>
+      <c r="W5" s="36" t="s">
+        <v>527</v>
+      </c>
+      <c r="X5" s="37" t="s">
+        <v>533</v>
+      </c>
+      <c r="Z5" s="31" t="s">
+        <v>536</v>
+      </c>
+      <c r="AA5" s="40" t="s">
+        <v>537</v>
+      </c>
+      <c r="AB5" s="40" t="s">
+        <v>538</v>
+      </c>
+      <c r="AC5" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD5" s="32" t="s">
+        <v>520</v>
+      </c>
+      <c r="AF5" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG5" s="40" t="s">
+        <v>542</v>
+      </c>
+      <c r="AH5" s="40" t="s">
+        <v>543</v>
+      </c>
+      <c r="AI5" s="40" t="s">
+        <v>544</v>
+      </c>
+      <c r="AJ5" s="32" t="s">
         <v>545</v>
       </c>
-      <c r="I4" s="64"/>
-      <c r="M4" s="13"/>
-    </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="H5" s="22"/>
-      <c r="I5" s="23"/>
-      <c r="M5" s="13"/>
-      <c r="O5" s="27" t="s">
-        <v>534</v>
-      </c>
-      <c r="P5" s="36" t="s">
+    </row>
+    <row r="6" spans="2:36" x14ac:dyDescent="0.35">
+      <c r="M6" s="26"/>
+      <c r="N6" s="27"/>
+      <c r="R6" s="14"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="25"/>
+      <c r="Z6" s="24"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="25"/>
+      <c r="AF6" s="42"/>
+      <c r="AG6" s="18"/>
+      <c r="AH6" s="18"/>
+      <c r="AI6" s="18"/>
+      <c r="AJ6" s="43"/>
+    </row>
+    <row r="7" spans="2:36" x14ac:dyDescent="0.35">
+      <c r="M7" s="41" t="s">
+        <v>532</v>
+      </c>
+      <c r="N7" s="13"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="75" t="s">
+        <v>551</v>
+      </c>
+      <c r="U7" s="70"/>
+      <c r="V7" s="70"/>
+      <c r="W7" s="70"/>
+      <c r="X7" s="76"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="75" t="s">
+        <v>540</v>
+      </c>
+      <c r="AA7" s="70"/>
+      <c r="AB7" s="70"/>
+      <c r="AC7" s="70"/>
+      <c r="AD7" s="76"/>
+      <c r="AE7" s="48"/>
+      <c r="AF7" s="64" t="s">
+        <v>546</v>
+      </c>
+      <c r="AG7" s="65"/>
+      <c r="AH7" s="65"/>
+      <c r="AI7" s="65"/>
+      <c r="AJ7" s="66"/>
+    </row>
+    <row r="8" spans="2:36" x14ac:dyDescent="0.35">
+      <c r="B8" s="49" t="s">
+        <v>526</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>527</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="R8" s="14"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="25"/>
+      <c r="Z8" s="24"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="13"/>
+      <c r="AD8" s="25"/>
+      <c r="AF8" s="42"/>
+      <c r="AG8" s="18"/>
+      <c r="AH8" s="18"/>
+      <c r="AI8" s="18"/>
+      <c r="AJ8" s="43"/>
+    </row>
+    <row r="9" spans="2:36" x14ac:dyDescent="0.35">
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="F9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="38"/>
+      <c r="W9" s="38"/>
+      <c r="X9" s="27"/>
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="38"/>
+      <c r="AB9" s="38"/>
+      <c r="AC9" s="38"/>
+      <c r="AD9" s="27"/>
+      <c r="AF9" s="44"/>
+      <c r="AG9" s="45"/>
+      <c r="AH9" s="45"/>
+      <c r="AI9" s="45"/>
+      <c r="AJ9" s="46"/>
+    </row>
+    <row r="10" spans="2:36" x14ac:dyDescent="0.35">
+      <c r="B10" s="67" t="s">
+        <v>548</v>
+      </c>
+      <c r="C10" s="65"/>
+      <c r="D10" s="68"/>
+      <c r="F10" s="14"/>
+      <c r="H10" s="28" t="s">
+        <v>526</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="29" t="s">
+        <v>527</v>
+      </c>
+      <c r="K10" s="30" t="s">
+        <v>529</v>
+      </c>
+      <c r="L10" s="33"/>
+      <c r="M10" s="35" t="s">
+        <v>526</v>
+      </c>
+      <c r="N10" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="O10" s="36" t="s">
+        <v>527</v>
+      </c>
+      <c r="P10" s="37" t="s">
+        <v>533</v>
+      </c>
+      <c r="R10" s="14"/>
+      <c r="T10" s="77" t="s">
         <v>535</v>
       </c>
-      <c r="Q5" s="36" t="s">
-        <v>536</v>
-      </c>
-      <c r="R5" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="S5" s="28" t="s">
-        <v>520</v>
-      </c>
-      <c r="U5" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="V5" s="36" t="s">
-        <v>538</v>
-      </c>
-      <c r="W5" s="36" t="s">
+      <c r="U10" s="78"/>
+      <c r="V10" s="79"/>
+      <c r="Z10" s="77" t="s">
+        <v>541</v>
+      </c>
+      <c r="AA10" s="78"/>
+      <c r="AB10" s="79"/>
+      <c r="AF10" s="47" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="11" spans="2:36" x14ac:dyDescent="0.35">
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="F11" s="14"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="25"/>
+      <c r="R11" s="14"/>
+    </row>
+    <row r="12" spans="2:36" x14ac:dyDescent="0.35">
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="F12" s="14"/>
+      <c r="H12" s="69" t="s">
+        <v>550</v>
+      </c>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="75" t="s">
         <v>539</v>
       </c>
-      <c r="X5" s="36" t="s">
-        <v>540</v>
-      </c>
-      <c r="Y5" s="28" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="H6" s="24"/>
-      <c r="I6" s="25"/>
-      <c r="M6" s="13"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="23"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="39"/>
-    </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="H7" s="37" t="s">
-        <v>532</v>
-      </c>
-      <c r="I7" s="12"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="66" t="s">
-        <v>548</v>
-      </c>
-      <c r="P7" s="65"/>
-      <c r="Q7" s="65"/>
-      <c r="R7" s="65"/>
-      <c r="S7" s="67"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="60" t="s">
-        <v>542</v>
-      </c>
-      <c r="V7" s="61"/>
-      <c r="W7" s="61"/>
-      <c r="X7" s="61"/>
-      <c r="Y7" s="62"/>
-    </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B8" s="45" t="s">
-        <v>526</v>
-      </c>
-      <c r="C8" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>527</v>
-      </c>
-      <c r="F8" s="11"/>
-      <c r="M8" s="13"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="23"/>
-      <c r="U8" s="38"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="16"/>
-      <c r="Y8" s="39"/>
-    </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
-      <c r="F9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="25"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="41"/>
-      <c r="W9" s="41"/>
-      <c r="X9" s="41"/>
-      <c r="Y9" s="42"/>
-    </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B10" s="63" t="s">
-        <v>544</v>
-      </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="64"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="31" t="s">
-        <v>526</v>
-      </c>
-      <c r="I10" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="32" t="s">
-        <v>527</v>
-      </c>
-      <c r="K10" s="33" t="s">
-        <v>533</v>
-      </c>
-      <c r="M10" s="13"/>
-      <c r="O10" s="68" t="s">
-        <v>537</v>
-      </c>
-      <c r="P10" s="69"/>
-      <c r="Q10" s="70"/>
-      <c r="U10" s="43" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="23"/>
-      <c r="M11" s="13"/>
-    </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="20"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="66" t="s">
-        <v>547</v>
-      </c>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="67"/>
-      <c r="M12" s="23"/>
-    </row>
-    <row r="13" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B13" s="21" t="s">
+      <c r="N12" s="70"/>
+      <c r="O12" s="70"/>
+      <c r="P12" s="76"/>
+      <c r="R12" s="25"/>
+    </row>
+    <row r="13" spans="2:36" x14ac:dyDescent="0.35">
+      <c r="B13" s="23" t="s">
         <v>528</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="23"/>
-      <c r="M13" s="23"/>
-    </row>
-    <row r="14" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="F13" s="14"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="25"/>
+      <c r="R13" s="25"/>
+    </row>
+    <row r="14" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="25"/>
-      <c r="M14" s="25"/>
-    </row>
-    <row r="15" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="F14" s="14"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="27"/>
+      <c r="R14" s="27"/>
+    </row>
+    <row r="15" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="F15" s="13"/>
-      <c r="H15" s="37" t="s">
+      <c r="F15" s="14"/>
+      <c r="H15" s="72" t="s">
+        <v>534</v>
+      </c>
+      <c r="I15" s="73"/>
+      <c r="J15" s="74"/>
+      <c r="M15" s="41" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="16" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B16" s="45" t="s">
+    <row r="16" spans="2:36" x14ac:dyDescent="0.35">
+      <c r="B16" s="49" t="s">
         <v>526</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="30" t="s">
         <v>529</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="F16" s="13"/>
+      <c r="F16" s="14"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B17" s="15"/>
-      <c r="C17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="1"/>
-      <c r="F17" s="13"/>
+      <c r="F17" s="14"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B18" s="63" t="s">
-        <v>545</v>
-      </c>
-      <c r="C18" s="64"/>
+      <c r="B18" s="67" t="s">
+        <v>549</v>
+      </c>
+      <c r="C18" s="68"/>
       <c r="D18" s="1"/>
-      <c r="F18" s="13"/>
+      <c r="F18" s="14"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B19" s="15"/>
-      <c r="C19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="19"/>
       <c r="D19" s="1"/>
-      <c r="F19" s="13"/>
+      <c r="F19" s="14"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B20" s="18"/>
-      <c r="C20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="1"/>
-      <c r="F20" s="14"/>
+      <c r="F20" s="16"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="23" t="s">
         <v>530</v>
       </c>
       <c r="D21" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="U7:Y7"/>
+  <mergeCells count="11">
+    <mergeCell ref="AF7:AJ7"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B18:C18"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M4:N4"/>
     <mergeCell ref="H12:K12"/>
-    <mergeCell ref="O7:S7"/>
-    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="T7:X7"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="Z7:AD7"/>
+    <mergeCell ref="Z10:AB10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
